--- a/data/income_statement/3digits/total/601_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/601_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>601-Radio broadcasting</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>601-Radio broadcasting</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>142788.77565</v>
@@ -956,37 +862,42 @@
         <v>164531.7299</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>191971.10245</v>
+        <v>191983.69486</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>218912.73361</v>
+        <v>219040.92102</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>253614.16833</v>
+        <v>253750.68002</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>275470.40225</v>
+        <v>275743.50853</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>299341.51672</v>
+        <v>299811.02096</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>327804.36486</v>
+        <v>328727.50566</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>354828.57059</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>332186.9101699999</v>
+        <v>332303.05436</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>356569.68921</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>359364.78653</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>281036.973</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>135984.94763</v>
@@ -995,37 +906,42 @@
         <v>153028.29047</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>180697.78475</v>
+        <v>180710.37716</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>197741.91704</v>
+        <v>197870.05742</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>234954.42771</v>
+        <v>235090.9394</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>254128.62544</v>
+        <v>254401.08563</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>274465.52102</v>
+        <v>274917.22401</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>301533.80616</v>
+        <v>302456.94696</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>329451.71417</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>303844.94426</v>
+        <v>303960.96329</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>326531.05365</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>329171.07498</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>254968.716</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>281.55325</v>
@@ -1058,13 +974,18 @@
         <v>1703.18279</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>1187.18158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1219.66933</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>4544.051</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>6522.27477</v>
@@ -1076,16 +997,16 @@
         <v>8815.131730000001</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>19033.43872</v>
+        <v>19033.48575</v>
       </c>
       <c r="G8" s="48" t="n">
         <v>16863.02947</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>19995.31373</v>
+        <v>19995.95982</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>22397.72837</v>
+        <v>22415.52962</v>
       </c>
       <c r="J8" s="48" t="n">
         <v>22728.82633</v>
@@ -1094,19 +1015,24 @@
         <v>23090.87058</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>26638.78312</v>
+        <v>26638.90828</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>28851.45398</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>28974.04222</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>21524.206</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>913.50317</v>
+        <v>913.5031700000001</v>
       </c>
       <c r="D9" s="47" t="n">
         <v>3874.74356</v>
@@ -1115,7 +1041,7 @@
         <v>4617.922060000001</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>13246.09608</v>
+        <v>13246.65608</v>
       </c>
       <c r="G9" s="47" t="n">
         <v>14563.90795</v>
@@ -1136,13 +1062,18 @@
         <v>16860.87339</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>19052.67906</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>19056.11126</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>15313.7</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>815.97021</v>
@@ -1154,7 +1085,7 @@
         <v>2899.18505</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>898.11626</v>
+        <v>898.67626</v>
       </c>
       <c r="G10" s="48" t="n">
         <v>5154.764429999999</v>
@@ -1163,28 +1094,33 @@
         <v>7819.82944</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>6051.778949999999</v>
+        <v>6051.77895</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>7850.1271</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>8073.730140000001</v>
+        <v>8073.73014</v>
       </c>
       <c r="L10" s="48" t="n">
         <v>8226.757079999999</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>10236.75961</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>10240.19181</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>8645.109</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>93.04622000000001</v>
+        <v>93.04622000000002</v>
       </c>
       <c r="D11" s="48" t="n">
         <v>2033.83936</v>
@@ -1202,7 +1138,7 @@
         <v>665.5049399999999</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>994.3393799999999</v>
+        <v>994.33938</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>1570.88181</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>1029.40064</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>491.607</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>4.48674</v>
@@ -1250,16 +1191,21 @@
         <v>7070.936019999999</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>7088.76076</v>
+        <v>7088.760760000001</v>
       </c>
       <c r="M12" s="48" t="n">
         <v>7786.51881</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>6176.984</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>141875.27248</v>
@@ -1268,37 +1214,42 @@
         <v>160656.98634</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>187353.18039</v>
+        <v>187365.7728</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>205666.63753</v>
+        <v>205794.26494</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>239050.26038</v>
+        <v>239186.77207</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>261494.77404</v>
+        <v>261767.88032</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>287585.57201</v>
+        <v>288055.07625</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>311635.16268</v>
+        <v>312558.30348</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>337723.59383</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>315326.03678</v>
+        <v>315442.18097</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>337517.01015</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>340308.67527</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>265723.273</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>122699.75696</v>
@@ -1310,34 +1261,39 @@
         <v>118809.32131</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>153594.93599</v>
+        <v>153606.61521</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>178157.69191</v>
+        <v>178250.65265</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>187548.73225</v>
+        <v>188068.60555</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>203424.09172</v>
+        <v>203914.56591</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>227565.81105</v>
+        <v>228212.24896</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>239879.63719</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>226951.51444</v>
+        <v>227017.07816</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>251572.3049</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>253913.70753</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>194427.66</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>4.16256</v>
@@ -1372,14 +1328,19 @@
       <c r="M15" s="48" t="n">
         <v>17606.96525</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>775.8408199999999</v>
+        <v>775.8408200000001</v>
       </c>
       <c r="D16" s="48" t="n">
         <v>1568.96236</v>
@@ -1394,7 +1355,7 @@
         <v>8420.34699</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>8187.14076</v>
+        <v>8187.140760000001</v>
       </c>
       <c r="I16" s="48" t="n">
         <v>4927.97982</v>
@@ -1411,11 +1372,16 @@
       <c r="M16" s="48" t="n">
         <v>6627.99211</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" s="48" t="n">
+        <v>5377.395</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>121868.75874</v>
@@ -1427,40 +1393,45 @@
         <v>115774.98616</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>144705.96284</v>
+        <v>144717.64206</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>169474.24325</v>
+        <v>169567.20399</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>179185.07113</v>
+        <v>179704.94443</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>198113.5728</v>
+        <v>198604.04699</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>223539.16316</v>
+        <v>224185.60107</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>235294.73227</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>220163.60553</v>
+        <v>220229.16925</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>221680.46365</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>224021.86628</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>184813.375</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>50.99484</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>70.96095999999999</v>
+        <v>70.96096</v>
       </c>
       <c r="E18" s="48" t="n">
         <v>246.04471</v>
@@ -1481,7 +1452,7 @@
         <v>733.70196</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>954.29637</v>
+        <v>954.2963700000001</v>
       </c>
       <c r="L18" s="48" t="n">
         <v>870.0968200000001</v>
@@ -1489,11 +1460,16 @@
       <c r="M18" s="48" t="n">
         <v>5656.88389</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>4231.99</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>19175.51552</v>
@@ -1502,76 +1478,86 @@
         <v>53247.42029000001</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>68543.85907999999</v>
+        <v>68556.45149000001</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>52071.70154</v>
+        <v>52187.64973</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>60892.56847</v>
+        <v>60936.11942</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>73946.04178999999</v>
+        <v>73699.27476999999</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>84161.48029000001</v>
+        <v>84140.51034000001</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>84069.35162999999</v>
+        <v>84346.05451999999</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>97843.95664</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>88374.52234000001</v>
+        <v>88425.10281</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>85944.70525</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>86394.96774000001</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>71295.613</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>51669.25076</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>58900.85132</v>
+        <v>58900.85131999999</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>66944.09414</v>
+        <v>66955.94131000001</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>62651.15782</v>
+        <v>62754.42191</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>64840.61894</v>
+        <v>65012.75159000001</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>81446.31796000001</v>
+        <v>81605.13097</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>85603.02739</v>
+        <v>85818.91033</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>103008.42927</v>
+        <v>102993.5744</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>103643.25281</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>102922.88479</v>
+        <v>102942.90208</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>121370.80334</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>122538.10298</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>100063.142</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>58.25246</v>
@@ -1589,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>0</v>
+        <v>9.188799999999999</v>
       </c>
       <c r="I21" s="48" t="n">
         <v>48.42205000000001</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>0.33827</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>13566.10875</v>
@@ -1631,7 +1622,7 @@
         <v>15515.76397</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>14577.26758</v>
+        <v>14580.80547</v>
       </c>
       <c r="J22" s="48" t="n">
         <v>23558.58245</v>
@@ -1643,13 +1634,18 @@
         <v>32096.01061</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>47953.59065</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>47979.36093</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>34441.104</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>38044.88955</v>
@@ -1658,76 +1654,86 @@
         <v>44096.38681</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>51926.62603</v>
+        <v>51938.47319999999</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>46051.25698</v>
+        <v>46154.52107</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>50002.8</v>
+        <v>50174.93265</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>65930.55399</v>
+        <v>66080.17819999999</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>70977.33776000001</v>
+        <v>71189.68281</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>79449.84681999999</v>
+        <v>79434.99195</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>77432.20358000002</v>
+        <v>77432.20358</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>70826.87418000001</v>
+        <v>70846.89147</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>73416.87442000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>74558.40378000001</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>65622.038</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>-32493.73524</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-5653.431030000002</v>
+        <v>-5653.431030000001</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>1599.76494</v>
+        <v>1600.510179999999</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-10579.45628</v>
+        <v>-10566.77218</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-3948.050469999999</v>
+        <v>-4076.63217</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-7500.27617</v>
+        <v>-7905.8562</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-1441.547100000002</v>
+        <v>-1678.39999</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-18939.07764</v>
+        <v>-18647.51988</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-5799.29617</v>
+        <v>-5799.296170000001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-14548.36245</v>
+        <v>-14517.79927</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-35426.09809000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-36143.13524</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-28767.529</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>14927.34749</v>
@@ -1748,10 +1754,10 @@
         <v>12781.79416</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>17476.56118</v>
+        <v>17848.51441</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>15413.72758</v>
+        <v>15436.74781</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>19546.75982</v>
@@ -1760,13 +1766,18 @@
         <v>20520.81931</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>31189.39114</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>31190.0022</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>20148.277</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>1045.41324</v>
@@ -1879,11 +1900,16 @@
       <c r="M28" s="48" t="n">
         <v>19590.77227</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" s="48" t="n">
+        <v>11802.312</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>2.046</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>183.2595</v>
@@ -1946,7 +1977,7 @@
         <v>300.30669</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>532.86554</v>
+        <v>555.35654</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>138.33173</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>353.95845</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>71.116</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>1086.59806</v>
@@ -1970,7 +2006,7 @@
         <v>24.18292</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>65.78442999999999</v>
+        <v>65.78443000000001</v>
       </c>
       <c r="F31" s="48" t="n">
         <v>266.3409</v>
@@ -1982,7 +2018,7 @@
         <v>433.3006</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>10.03261</v>
+        <v>381.9858399999999</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>288.93715</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>225.92006</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>64.68600000000001</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>11059.95898</v>
@@ -2024,22 +2065,27 @@
         <v>5370.99221</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>2509.99818</v>
+        <v>2510.52741</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>4536.083439999999</v>
+        <v>4536.08344</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>5530.74005</v>
+        <v>5530.740049999999</v>
       </c>
       <c r="M32" s="48" t="n">
         <v>2086.04068</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" s="48" t="n">
+        <v>1160.824</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>277.22895</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>7.51358</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0.15374</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>1.721</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>1274.88876</v>
@@ -2141,7 +2197,7 @@
         <v>4078.45106</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>3797.637909999999</v>
+        <v>3797.63791</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>4161.0716</v>
@@ -2150,37 +2206,42 @@
         <v>2039.26246</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>8924.832359999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>8925.44342</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>7045.572</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>3452.50349</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>3280.78767</v>
+        <v>3280.787670000001</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>2756.40167</v>
+        <v>2756.401669999999</v>
       </c>
       <c r="F36" s="47" t="n">
         <v>2893.87487</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>8168.038369999999</v>
+        <v>8168.03837</v>
       </c>
       <c r="H36" s="47" t="n">
         <v>11547.56539</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>16764.86155</v>
+        <v>16764.86157</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>5987.12092</v>
+        <v>5930.89174</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>8218.70018</v>
@@ -2189,13 +2250,18 @@
         <v>5035.94054</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>2522.2102</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>2522.43741</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>2422.575</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>374.9573</v>
@@ -2213,7 +2279,7 @@
         <v>2833.15516</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>478.67104</v>
+        <v>478.6710400000001</v>
       </c>
       <c r="I37" s="48" t="n">
         <v>2458.65943</v>
@@ -2228,13 +2294,18 @@
         <v>1090.16711</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>828.14554</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>828.37274</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>667.908</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>375.6788</v>
@@ -2252,7 +2323,7 @@
         <v>2663.31575</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>6705.22234</v>
+        <v>6705.222340000001</v>
       </c>
       <c r="I38" s="48" t="n">
         <v>8454.711160000001</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>240.61214</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>109.365</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>1.70933</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>6.17475</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>2558.26285</v>
@@ -2347,11 +2428,16 @@
       <c r="M40" s="48" t="n">
         <v>1315.50364</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" s="48" t="n">
+        <v>1323.186</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>141.89521</v>
@@ -2450,10 +2546,10 @@
         <v>155.38301</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>128.49524</v>
+        <v>128.49526</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>194.45475</v>
+        <v>138.22557</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>200.78751</v>
@@ -2462,13 +2558,18 @@
         <v>22.64523</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>131.77413</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>131.77414</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>322.116</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>12935.02287</v>
@@ -2480,7 +2581,7 @@
         <v>14084.28025</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>6524.025769999999</v>
+        <v>6524.02577</v>
       </c>
       <c r="G44" s="47" t="n">
         <v>7897.439</v>
@@ -2495,19 +2596,24 @@
         <v>6895.73012</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>8715.820349999998</v>
+        <v>8715.82035</v>
       </c>
       <c r="L44" s="47" t="n">
         <v>13389.81495</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>19603.97367</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>19626.68867</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>12877.931</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>12932.09068</v>
@@ -2522,16 +2628,16 @@
         <v>6522.6055</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>7889.767620000001</v>
+        <v>7889.76762</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>8896.658799999999</v>
+        <v>8896.658800000001</v>
       </c>
       <c r="I45" s="48" t="n">
         <v>12949.14903</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>6642.24446</v>
+        <v>6642.244459999999</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>8274.61311</v>
@@ -2540,13 +2646,18 @@
         <v>13332.11003</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>19581.43043</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>19604.14543</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>12833.47</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>2.93219</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>22.54324</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>44.461</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>-33953.91411</v>
@@ -2594,37 +2710,42 @@
         <v>-16262.42286</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-8228.005090000002</v>
+        <v>-8227.25985</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-13502.21874</v>
+        <v>-13489.53464</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-12013.37348</v>
+        <v>-12141.95518</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-15177.08176</v>
+        <v>-15582.66179</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-13693.40853</v>
+        <v>-13558.30821</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-16408.2011</v>
+        <v>-16037.39393</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>-3187.05688</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-12453.29863</v>
+        <v>-12422.73545</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-26362.89082</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-27102.25912</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-23919.758</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>816.58852</v>
@@ -2645,10 +2766,10 @@
         <v>21419.91845</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>4979.841800000001</v>
+        <v>4979.993030000001</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>5291.855080000001</v>
+        <v>5291.85508</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>3829.04968</v>
@@ -2657,16 +2778,21 @@
         <v>2252.47001</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>11464.76482</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>11466.29986</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>5861.981</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>9.34047</v>
+        <v>9.340470000000002</v>
       </c>
       <c r="D49" s="48" t="n">
         <v>0.42019</v>
@@ -2698,20 +2824,25 @@
       <c r="M49" s="48" t="n">
         <v>1031.7037</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>84.185</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>807.2480499999999</v>
+        <v>807.24805</v>
       </c>
       <c r="D50" s="48" t="n">
         <v>1016.08922</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>3596.79975</v>
+        <v>3596.799750000001</v>
       </c>
       <c r="F50" s="48" t="n">
         <v>1343.97932</v>
@@ -2723,7 +2854,7 @@
         <v>21368.85273</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>4806.299919999999</v>
+        <v>4806.451150000001</v>
       </c>
       <c r="J50" s="48" t="n">
         <v>5283.329220000001</v>
@@ -2735,22 +2866,27 @@
         <v>2205.61217</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>10433.06112</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>10434.59616</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>5777.796</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>755.4203499999999</v>
+        <v>755.4203500000001</v>
       </c>
       <c r="D51" s="47" t="n">
         <v>1308.29246</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>6544.09897</v>
+        <v>6544.098970000001</v>
       </c>
       <c r="F51" s="47" t="n">
         <v>4287.64967</v>
@@ -2759,13 +2895,13 @@
         <v>2014.5714</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>10850.80349</v>
+        <v>10851.50577</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>17318.72603</v>
+        <v>17318.93583</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>14982.99749</v>
+        <v>14983.1089</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>2958.485</v>
@@ -2774,13 +2910,18 @@
         <v>5734.4496</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>6067.37474</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>6798.93346</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>5599.998</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>5.7695</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>163.87761</v>
@@ -2831,7 +2977,7 @@
         <v>543.58462</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>785.33696</v>
+        <v>785.3369600000001</v>
       </c>
       <c r="G53" s="48" t="n">
         <v>612.7328100000001</v>
@@ -2854,11 +3000,16 @@
       <c r="M53" s="48" t="n">
         <v>449.01158</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>206.261</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>585.77324</v>
@@ -2876,28 +3027,33 @@
         <v>1386.96491</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>9789.139009999999</v>
+        <v>9789.841289999998</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>2086.95888</v>
+        <v>2087.16868</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>14790.03514</v>
+        <v>14790.14655</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>2830.73856</v>
+        <v>2830.738560000001</v>
       </c>
       <c r="L54" s="48" t="n">
         <v>4599.657200000001</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>5618.36316</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>6349.921880000001</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>5393.737</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>-33892.74594</v>
@@ -2906,37 +3062,42 @@
         <v>-16554.20591</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-11102.46247</v>
+        <v>-11101.71723</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-16074.79506</v>
+        <v>-16062.11096</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-11383.5891</v>
+        <v>-11512.1708</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-4607.966800000003</v>
+        <v>-5014.249110000001</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-26032.29276</v>
+        <v>-25897.25101</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-26099.34351</v>
+        <v>-25728.64775</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>-2316.492199999999</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-15935.27822</v>
+        <v>-15904.71504</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-20965.50074</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-22434.89272</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-23657.775</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>1279.03878</v>
@@ -2951,31 +3112,36 @@
         <v>3034.1362</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>3554.218820000001</v>
+        <v>3554.21882</v>
       </c>
       <c r="H56" s="47" t="n">
         <v>3644.06349</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>4435.33834</v>
+        <v>4461.20951</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>4468.58187</v>
+        <v>4528.52649</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>4589.76173</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>6116.12016</v>
+        <v>6116.73922</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>5411.81042</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>5423.99557</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>3046.633</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>-35171.78472</v>
@@ -2984,34 +3150,37 @@
         <v>-18412.83622</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-14339.18337</v>
+        <v>-14338.43813</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-19108.93126</v>
+        <v>-19096.24716</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-14937.80792</v>
+        <v>-15066.38962</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-8252.030289999997</v>
+        <v>-8658.312599999997</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-30467.6311</v>
+        <v>-30358.46052</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-30567.92538</v>
+        <v>-30257.17424</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-6906.25393</v>
+        <v>-6906.253930000002</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-22051.39838</v>
+        <v>-22021.45426</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-26377.31116</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-27858.88829</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-26704.408</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>774</v>
@@ -3038,19 +3210,19 @@
         <v>808</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>918</v>
+        <v>928</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>930</v>
+        <v>939</v>
       </c>
       <c r="J59" s="35" t="n">
         <v>859</v>
@@ -3059,13 +3231,16 @@
         <v>848</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>852</v>
+        <v>858</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>848</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>